--- a/InsaneStore/scripts.xlsx
+++ b/InsaneStore/scripts.xlsx
@@ -42,10 +42,10 @@
     <t>8+</t>
   </si>
   <si>
-    <t>Svargrond Frost Troll - @insanestore</t>
+    <t>Svargrond Frost Troll</t>
   </si>
   <si>
-    <t>Svargrond_Frost_Troll/IS_Svargrond_Frost_Troll_RP_v1.0.json</t>
+    <t>SvargrondFrostTroll/IS_Svargrond_Frost_Troll_RP_v1.0.json</t>
   </si>
 </sst>
 </file>
@@ -55,7 +55,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -65,6 +65,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
@@ -90,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -98,10 +99,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -353,10 +357,10 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2">
@@ -369,9 +373,9 @@
     <row r="3" ht="15.75" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1"/>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
     <row r="7" ht="15.75" customHeight="1"/>
